--- a/EnglishCat/doc/details.xlsx
+++ b/EnglishCat/doc/details.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="9615"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="9615" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴 구성" sheetId="2" r:id="rId1"/>
-    <sheet name="분류 설명" sheetId="6" r:id="rId2"/>
-    <sheet name="관리자 화면" sheetId="3" r:id="rId3"/>
+    <sheet name="관리자 화면" sheetId="3" r:id="rId2"/>
+    <sheet name="분류 설명" sheetId="6" r:id="rId3"/>
     <sheet name="DB 구조" sheetId="4" r:id="rId4"/>
-    <sheet name="담당" sheetId="7" r:id="rId5"/>
-    <sheet name="일지 (임시)" sheetId="8" r:id="rId6"/>
-    <sheet name="메뉴 리스트" sheetId="1" r:id="rId7"/>
+    <sheet name="TABLE 구조" sheetId="9" r:id="rId5"/>
+    <sheet name="담당" sheetId="7" r:id="rId6"/>
+    <sheet name="일지 (임시)" sheetId="8" r:id="rId7"/>
+    <sheet name="메뉴 리스트" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="216">
   <si>
     <t>잉글리쉬캣</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,14 +512,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명칭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -527,11 +520,428 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장예원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장예원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 환경 구축 및 계정 생성
+ - DB환경의 서버화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 생성 쿼리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY 형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_USER_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_PASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_PHONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_MAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ADDRESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTH_GROUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ZIPCODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(1)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_CONT_REVIEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONT_TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONT_READ_CNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONT_LIKE_CNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONT_DIS_CNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONT_CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIKE / READ / DIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONT_CNT_SORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_CODE_CNT_SORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_CONT_REVIEW_CNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강후기 조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 성명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 E-mail 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 거주지 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 우편번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한 그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴면계정여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIKE 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISLIKE 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 수정일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 수정일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정보 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강후기 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE TB_USER_INFO
+(
+ USER_ID VARCHAR2(15) NOT NULL
+ , USER_PASS VARCHAR2(100) 
+ , USER_NAME VARCHAR2(10) NOT NULL
+ , USER_PHONE VARCHAR2(15) 
+ , USER_MAIL VARCHAR2(25) 
+ , USER_ADDRESS VARCHAR2(100) 
+ , USER_ZIPCODE VARCHAR2(6) 
+ , AUTH_GROUP VARCHAR2(6) NOT NULL
+ , INSERT_DT DATE NOT NULL
+ , UPDATE_DT DATE 
+ , DELETE_YN VARCHAR2(1) 
+ , CONSTRAINT PK_USER_INFO PRIMARY KEY (USER_ID)
+);
+COMMENT ON TABLE TB_USER_INFO IS '사용자 정보 테이블';
+COMMENT ON COLUMN TB_USER_INFO.USER_ID IS '사용자 ID';
+COMMENT ON COLUMN TB_USER_INFO.USER_PASS IS '사용자 비밀번호';
+COMMENT ON COLUMN TB_USER_INFO.USER_NAME IS '사용자 성명';
+COMMENT ON COLUMN TB_USER_INFO.USER_PHONE IS '사용자 전화번호';
+COMMENT ON COLUMN TB_USER_INFO.USER_MAIL IS '사용자 E-mail 주소';
+COMMENT ON COLUMN TB_USER_INFO.USER_ADDRESS IS '사용자 거주지 주소';
+COMMENT ON COLUMN TB_USER_INFO.USER_ZIPCODE IS '사용자 우편번호';
+COMMENT ON COLUMN TB_USER_INFO.AUTH_GROUP IS '권한 그룹';
+COMMENT ON COLUMN TB_USER_INFO.INSERT_DT IS '가입일자';
+COMMENT ON COLUMN TB_USER_INFO.UPDATE_DT IS '최종 수정일자';
+COMMENT ON COLUMN TB_USER_INFO.DELETE_YN IS '휴면계정여부';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE TB_CONT_REVIEW
+(
+ CONT_ID VARCHAR2(6) NOT NULL
+ , CONT_TITLE VARCHAR2(30) NOT NULL
+ , CONT_CONTENT CLOB NOT NULL
+ , USER_ID VARCHAR2(15) NOT NULL
+ , CONT_READ_CNT NUMBER(4) 
+ , CONT_LIKE_CNT NUMBER(4) 
+ , CONT_DIS_CNT NUMBER(4) 
+ , INSERT_DT DATE NOT NULL
+ , UPDATE_DT DATE 
+ , DELETE_YN VARCHAR2(1) 
+ , CONSTRAINT PK_CONT_REVIEW PRIMARY KEY (CONT_ID)
+);
+COMMENT ON TABLE TB_CONT_REVIEW IS '수강후기 게시판';
+COMMENT ON COLUMN TB_CONT_REVIEW.CONT_ID IS '게시물 ID';
+COMMENT ON COLUMN TB_CONT_REVIEW.CONT_TITLE IS '게시물 제목';
+COMMENT ON COLUMN TB_CONT_REVIEW.CONT_CONTENT IS '게시물 내용';
+COMMENT ON COLUMN TB_CONT_REVIEW.USER_ID IS '사용자 ID';
+COMMENT ON COLUMN TB_CONT_REVIEW.CONT_READ_CNT IS '조회 수';
+COMMENT ON COLUMN TB_CONT_REVIEW.CONT_LIKE_CNT IS 'LIKE 수';
+COMMENT ON COLUMN TB_CONT_REVIEW.CONT_DIS_CNT IS 'DISLIKE 수';
+COMMENT ON COLUMN TB_CONT_REVIEW.INSERT_DT IS '작성일자';
+COMMENT ON COLUMN TB_CONT_REVIEW.UPDATE_DT IS '최종 수정일자';
+COMMENT ON COLUMN TB_CONT_REVIEW.DELETE_YN IS '삭제여부';</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,11 +1340,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1203,12 +1616,101 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="10.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.25" style="1" customWidth="1"/>
+    <col min="4" max="10" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="str">
+        <f ca="1">"* "&amp;RIGHT(CELL("filename",B3),LEN(CELL("filename",B3))-FIND("]",CELL("filename",B3)))</f>
+        <v>* 관리자 화면</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1317,29 +1819,35 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.25" style="1" customWidth="1"/>
-    <col min="4" max="10" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="35.5" style="1" customWidth="1"/>
+    <col min="6" max="14" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="str">
         <f ca="1">"* "&amp;RIGHT(CELL("filename",B3),LEN(CELL("filename",B3))-FIND("]",CELL("filename",B3)))</f>
-        <v>* 관리자 화면</v>
+        <v>* DB 구조</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1350,8 +1858,12 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1362,63 +1874,135 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
+        <v>213</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16" width="9" style="1"/>
+    <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="1" customWidth="1"/>
+    <col min="7" max="15" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="str">
         <f ca="1">"* "&amp;RIGHT(CELL("filename",B3),LEN(CELL("filename",B3))-FIND("]",CELL("filename",B3)))</f>
-        <v>* DB 구조</v>
+        <v>* TABLE 구조</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1434,9 +2018,8 @@
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-    </row>
-    <row r="2" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1452,39 +2035,390 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
+        <v>133</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1551,16 +2485,20 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1641,7 +2579,7 @@
         <v>43340</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>103</v>
@@ -1658,14 +2596,29 @@
         <v>104</v>
       </c>
     </row>
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>43340</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1921,6 +2874,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/EnglishCat/doc/details.xlsx
+++ b/EnglishCat/doc/details.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\it\Documents\EnglishCat\EnglishCat\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D535E53-AE82-4139-A404-1C82079DBE58}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="9615" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="9615" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴 구성" sheetId="2" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="일지 (임시)" sheetId="8" r:id="rId7"/>
     <sheet name="메뉴 리스트" sheetId="1" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="223">
   <si>
     <t>잉글리쉬캣</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -944,11 +945,39 @@
 COMMENT ON COLUMN TB_CONT_REVIEW.DELETE_YN IS '삭제여부';</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>김대홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현황 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joinform, loginform 틀 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_USER_INFO 테이블 및 컬럼 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ovenapp 프로토타이핑 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김대홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 환경 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1339,7 +1368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1622,7 +1651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1707,14 +1736,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1825,14 +1854,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1980,7 +2009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1988,7 +2017,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2415,7 +2444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2491,14 +2520,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2607,6 +2636,72 @@
         <v>124</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>43338</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>43339</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>43339</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>43340</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>43341</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>43341</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2615,7 +2710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/EnglishCat/doc/details.xlsx
+++ b/EnglishCat/doc/details.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\it\Documents\EnglishCat\EnglishCat\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D535E53-AE82-4139-A404-1C82079DBE58}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="9615" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="9615" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴 구성" sheetId="2" r:id="rId1"/>
     <sheet name="관리자 화면" sheetId="3" r:id="rId2"/>
     <sheet name="분류 설명" sheetId="6" r:id="rId3"/>
-    <sheet name="DB 구조" sheetId="4" r:id="rId4"/>
-    <sheet name="TABLE 구조" sheetId="9" r:id="rId5"/>
-    <sheet name="담당" sheetId="7" r:id="rId6"/>
-    <sheet name="일지 (임시)" sheetId="8" r:id="rId7"/>
-    <sheet name="메뉴 리스트" sheetId="1" r:id="rId8"/>
+    <sheet name="Naming Rule" sheetId="10" r:id="rId4"/>
+    <sheet name="DB 구조" sheetId="4" r:id="rId5"/>
+    <sheet name="TABLE 구조" sheetId="9" r:id="rId6"/>
+    <sheet name="담당" sheetId="7" r:id="rId7"/>
+    <sheet name="일지 (임시)" sheetId="8" r:id="rId8"/>
+    <sheet name="메뉴 리스트" sheetId="1" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="270">
   <si>
     <t>잉글리쉬캣</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -709,10 +709,6 @@
   </si>
   <si>
     <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIKE / READ / DIS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -946,39 +942,261 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김대홍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현황 분석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>joinform, loginform 틀 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_USER_INFO 테이블 및 컬럼 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ovenapp 프로토타이핑 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김대홍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB 환경 구축</t>
+    <t>PK_USER_INFO</t>
+  </si>
+  <si>
+    <t>primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_CONT_REVIEW</t>
+  </si>
+  <si>
+    <t>primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_USER_INFO 테이블의 PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_CONT_REVIEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_CONT_REVIEW 테이블의 PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_</t>
+  </si>
+  <si>
+    <t>정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_HIS</t>
+  </si>
+  <si>
+    <t>이력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_</t>
+  </si>
+  <si>
+    <t>primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR_</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어미</t>
+  </si>
+  <si>
+    <t>어두</t>
+  </si>
+  <si>
+    <t>어간</t>
+  </si>
+  <si>
+    <t>USER_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONT_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨텐츠 관련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAV_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 관련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_CNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴지 아닌지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요소명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수식어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTH_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한 관련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 관련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 컬럼명의 경우 [요소명]을 생략한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - DB Table의 명명규칙은 다음과 같다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - [수식어]는 필요한 경우에만 사용한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - [분류명]은 필수값으로 한다 (단, 수식어가 사용되는 경우는 경우에 따라 상이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   [요소명]_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[분류명]_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>풀네임</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_[수식어]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIKE / READ / DIS</t>
+  </si>
+  <si>
+    <t>게시물 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COUNT 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COUNT 일시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1004,6 +1222,34 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -1055,7 +1301,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1087,6 +1333,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1368,7 +1620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1651,7 +1903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1736,14 +1988,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1854,19 +2106,390 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5" style="1" customWidth="1"/>
+    <col min="7" max="15" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="str">
+        <f ca="1">"* "&amp;RIGHT(CELL("filename",B8),LEN(CELL("filename",B8))-FIND("]",CELL("filename",B8)))</f>
+        <v>* Naming Rule</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
     <col min="4" max="5" width="35.5" style="1" customWidth="1"/>
@@ -1927,45 +2550,65 @@
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>161</v>
+        <v>220</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
     <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2008,27 +2651,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="15.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5" style="1" customWidth="1"/>
-    <col min="7" max="15" width="9" style="1"/>
+    <col min="6" max="7" width="24.5" style="1" customWidth="1"/>
+    <col min="8" max="16" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="str">
         <f ca="1">"* "&amp;RIGHT(CELL("filename",B3),LEN(CELL("filename",B3))-FIND("]",CELL("filename",B3)))</f>
         <v>* TABLE 구조</v>
@@ -2047,8 +2690,9 @@
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2064,8 +2708,9 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="9"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>127</v>
       </c>
@@ -2084,8 +2729,11 @@
       <c r="F4" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>133</v>
       </c>
@@ -2102,10 +2750,10 @@
         <v>135</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>137</v>
       </c>
@@ -2113,10 +2761,10 @@
         <v>158</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>140</v>
       </c>
@@ -2127,10 +2775,10 @@
         <v>136</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>138</v>
       </c>
@@ -2138,10 +2786,10 @@
         <v>155</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>139</v>
       </c>
@@ -2149,10 +2797,10 @@
         <v>156</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>141</v>
       </c>
@@ -2160,10 +2808,10 @@
         <v>157</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>149</v>
       </c>
@@ -2171,10 +2819,10 @@
         <v>159</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>145</v>
       </c>
@@ -2185,10 +2833,10 @@
         <v>136</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>143</v>
       </c>
@@ -2196,13 +2844,13 @@
         <v>147</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>144</v>
       </c>
@@ -2210,10 +2858,10 @@
         <v>148</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>150</v>
       </c>
@@ -2221,11 +2869,11 @@
         <v>152</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>161</v>
       </c>
@@ -2233,7 +2881,7 @@
         <v>162</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>136</v>
@@ -2242,85 +2890,85 @@
         <v>135</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>143</v>
       </c>
@@ -2328,13 +2976,13 @@
         <v>146</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>144</v>
       </c>
@@ -2342,39 +2990,42 @@
         <v>146</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>151</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>136</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>169</v>
       </c>
@@ -2385,41 +3036,50 @@
         <v>136</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="F31" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2443,8 +3103,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2519,15 +3179,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2636,72 +3296,6 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>43338</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>43339</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>43339</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>43340</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>43341</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>43341</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2709,8 +3303,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/EnglishCat/doc/details.xlsx
+++ b/EnglishCat/doc/details.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="278">
   <si>
     <t>잉글리쉬캣</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -792,62 +792,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>사용자 비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 성명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 E-mail 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 거주지 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 우편번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한 그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴면계정여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>사용자 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사용자 비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 성명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 전화번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 E-mail 주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 거주지 주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 우편번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한 그룹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴면계정여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시물 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시물 제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시물 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조회 수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -881,36 +877,6 @@
   </si>
   <si>
     <t>수강후기 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE TB_USER_INFO
-(
- USER_ID VARCHAR2(15) NOT NULL
- , USER_PASS VARCHAR2(100) 
- , USER_NAME VARCHAR2(10) NOT NULL
- , USER_PHONE VARCHAR2(15) 
- , USER_MAIL VARCHAR2(25) 
- , USER_ADDRESS VARCHAR2(100) 
- , USER_ZIPCODE VARCHAR2(6) 
- , AUTH_GROUP VARCHAR2(6) NOT NULL
- , INSERT_DT DATE NOT NULL
- , UPDATE_DT DATE 
- , DELETE_YN VARCHAR2(1) 
- , CONSTRAINT PK_USER_INFO PRIMARY KEY (USER_ID)
-);
-COMMENT ON TABLE TB_USER_INFO IS '사용자 정보 테이블';
-COMMENT ON COLUMN TB_USER_INFO.USER_ID IS '사용자 ID';
-COMMENT ON COLUMN TB_USER_INFO.USER_PASS IS '사용자 비밀번호';
-COMMENT ON COLUMN TB_USER_INFO.USER_NAME IS '사용자 성명';
-COMMENT ON COLUMN TB_USER_INFO.USER_PHONE IS '사용자 전화번호';
-COMMENT ON COLUMN TB_USER_INFO.USER_MAIL IS '사용자 E-mail 주소';
-COMMENT ON COLUMN TB_USER_INFO.USER_ADDRESS IS '사용자 거주지 주소';
-COMMENT ON COLUMN TB_USER_INFO.USER_ZIPCODE IS '사용자 우편번호';
-COMMENT ON COLUMN TB_USER_INFO.AUTH_GROUP IS '권한 그룹';
-COMMENT ON COLUMN TB_USER_INFO.INSERT_DT IS '가입일자';
-COMMENT ON COLUMN TB_USER_INFO.UPDATE_DT IS '최종 수정일자';
-COMMENT ON COLUMN TB_USER_INFO.DELETE_YN IS '휴면계정여부';</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1189,6 +1155,70 @@
   </si>
   <si>
     <t>COUNT 일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>VARCHAR2(15)</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>사용자 ID</t>
+  </si>
+  <si>
+    <t>VARCHAR2(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_PID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 PRIMARY ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE TB_USER_INFO
+(
+ USER_PID VARCHAR2(6) NOT NULL
+ , USER_ID VARCHAR2(15) NOT NULL
+ , USER_PASS VARCHAR2(100) 
+ , USER_NAME VARCHAR2(10) NOT NULL
+ , USER_PHONE VARCHAR2(15) 
+ , USER_MAIL VARCHAR2(25) 
+ , USER_ADDRESS VARCHAR2(100) 
+ , USER_ZIPCODE VARCHAR2(6) 
+ , AUTH_GROUP VARCHAR2(6) NOT NULL
+ , INSERT_DT DATE NOT NULL
+ , UPDATE_DT DATE 
+ , DELETE_YN VARCHAR2(1) 
+ , CONSTRAINT PK_USER_INFO PRIMARY KEY (USER_PID)
+);
+COMMENT ON TABLE TB_USER_INFO IS '사용자 정보 테이블';
+COMMENT ON COLUMN TB_USER_INFO.USER_PID IS '사용자 PRIMARY ID';
+COMMENT ON COLUMN TB_USER_INFO.USER_ID IS '사용자 ID';
+COMMENT ON COLUMN TB_USER_INFO.USER_PASS IS '사용자 비밀번호';
+COMMENT ON COLUMN TB_USER_INFO.USER_NAME IS '사용자 성명';
+COMMENT ON COLUMN TB_USER_INFO.USER_PHONE IS '사용자 전화번호';
+COMMENT ON COLUMN TB_USER_INFO.USER_MAIL IS '사용자 E-mail 주소';
+COMMENT ON COLUMN TB_USER_INFO.USER_ADDRESS IS '사용자 거주지 주소';
+COMMENT ON COLUMN TB_USER_INFO.USER_ZIPCODE IS '사용자 우편번호';
+COMMENT ON COLUMN TB_USER_INFO.AUTH_GROUP IS '권한 그룹';
+COMMENT ON COLUMN TB_USER_INFO.INSERT_DT IS '가입일자';
+COMMENT ON COLUMN TB_USER_INFO.UPDATE_DT IS '최종 수정일자';
+COMMENT ON COLUMN TB_USER_INFO.DELETE_YN IS '휴면계정여부';</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2166,7 +2196,7 @@
     </row>
     <row r="3" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -2185,7 +2215,7 @@
     </row>
     <row r="4" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -2204,7 +2234,7 @@
     </row>
     <row r="5" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -2223,7 +2253,7 @@
     </row>
     <row r="6" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -2242,7 +2272,7 @@
     </row>
     <row r="7" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2261,19 +2291,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>87</v>
@@ -2281,192 +2311,192 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2484,7 +2514,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2556,10 +2586,10 @@
         <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>213</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2567,13 +2597,13 @@
         <v>189</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2589,24 +2619,24 @@
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2656,11 +2686,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2730,7 +2760,7 @@
         <v>129</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2738,351 +2768,364 @@
         <v>133</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>134</v>
+        <v>275</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>153</v>
+        <v>272</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>136</v>
+        <v>273</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>135</v>
+        <v>274</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>190</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>137</v>
+        <v>268</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>158</v>
+        <v>269</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>191</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="F18" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>175</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>175</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>146</v>
       </c>
+      <c r="D25" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="F25" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="F27" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>136</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G30" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="F32" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3096,6 +3139,7 @@
     <row r="45" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3111,7 +3155,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/EnglishCat/doc/details.xlsx
+++ b/EnglishCat/doc/details.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="304">
   <si>
     <t>잉글리쉬캣</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1219,6 +1219,120 @@
 COMMENT ON COLUMN TB_USER_INFO.INSERT_DT IS '가입일자';
 COMMENT ON COLUMN TB_USER_INFO.UPDATE_DT IS '최종 수정일자';
 COMMENT ON COLUMN TB_USER_INFO.DELETE_YN IS '휴면계정여부';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 코드 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_CODE_BOARD_KEY</t>
+  </si>
+  <si>
+    <t>TB_CODE_BOARD_KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOARD_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQUENCE 자리 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE_HEAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 어두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 FULLNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVIEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE TB_CODE_BOARD_KEY
+(
+ BOARD_NAME VARCHAR2(15) NOT NULL
+ , CODE_HEAD VARCHAR2(4) NOT NULL
+ , CODE_SEQ VARCHAR2(6) NOT NULL
+ , CONSTRAINT PK_CODE_BOARD_KEY PRIMARY KEY (BOARD_NAME)
+);
+COMMENT ON TABLE TB_CODE_BOARD_KEY IS '게시판 코드 규칙';
+COMMENT ON COLUMN TB_CODE_BOARD_KEY.BOARD_NAME IS '게시판 FULLNAME';
+COMMENT ON COLUMN TB_CODE_BOARD_KEY.CODE_HEAD IS '코드 어두';
+COMMENT ON COLUMN TB_CODE_BOARD_KEY.CODE_SEQ IS 'SEQUENCE 자리 수';
+INSERT INTO TB_CODE_BOARD_KEY
+VALUES ('REVIEW', 'RV', '0000');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_CODE_BOARD_KEY</t>
+  </si>
+  <si>
+    <t>TB_CODE_BOARD_KEY 테이블의 PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1331,7 +1445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1370,6 +1484,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2140,10 +2257,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2499,6 +2616,23 @@
         <v>245</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2513,8 +2647,8 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2639,8 +2773,28 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
     <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2689,8 +2843,8 @@
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3120,26 +3274,80 @@
         <v>267</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:1" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EnglishCat/doc/details.xlsx
+++ b/EnglishCat/doc/details.xlsx
@@ -16,11 +16,10 @@
     <sheet name="관리자 화면" sheetId="3" r:id="rId2"/>
     <sheet name="분류 설명" sheetId="6" r:id="rId3"/>
     <sheet name="Naming Rule" sheetId="10" r:id="rId4"/>
-    <sheet name="DB 구조" sheetId="4" r:id="rId5"/>
-    <sheet name="TABLE 구조" sheetId="9" r:id="rId6"/>
-    <sheet name="담당" sheetId="7" r:id="rId7"/>
-    <sheet name="일지 (임시)" sheetId="8" r:id="rId8"/>
-    <sheet name="메뉴 리스트" sheetId="1" r:id="rId9"/>
+    <sheet name="TABLE 구조" sheetId="9" r:id="rId5"/>
+    <sheet name="담당" sheetId="7" r:id="rId6"/>
+    <sheet name="일지 (임시)" sheetId="8" r:id="rId7"/>
+    <sheet name="메뉴 리스트" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="364">
   <si>
     <t>잉글리쉬캣</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -513,14 +512,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장예원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -538,10 +529,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -566,14 +553,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TB_USER_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -614,10 +593,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AUTH_GROUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DATE</t>
   </si>
   <si>
@@ -644,18 +619,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>VARCHAR2(15)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR2(25)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -676,7 +647,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TB_CONT_REVIEW</t>
+    <t>CONT_TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONT_CONTENT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -684,38 +659,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CONT_TITLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONT_READ_CNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONT_LIKE_CNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONT_DIS_CNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONT_CONTENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONT_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONT_CNT_SORT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR2(6)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -732,14 +675,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NUMBER(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NOT NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -752,10 +687,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR2(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -772,26 +703,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_CODE_CNT_SORT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_CONT_REVIEW_CNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강후기 조회수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자 비밀번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -844,18 +755,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>조회 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIKE 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISLIKE 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>작성일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -869,68 +768,6 @@
   </si>
   <si>
     <t>삭제여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 정보 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강후기 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE TB_CONT_REVIEW
-(
- CONT_ID VARCHAR2(6) NOT NULL
- , CONT_TITLE VARCHAR2(30) NOT NULL
- , CONT_CONTENT CLOB NOT NULL
- , USER_ID VARCHAR2(15) NOT NULL
- , CONT_READ_CNT NUMBER(4) 
- , CONT_LIKE_CNT NUMBER(4) 
- , CONT_DIS_CNT NUMBER(4) 
- , INSERT_DT DATE NOT NULL
- , UPDATE_DT DATE 
- , DELETE_YN VARCHAR2(1) 
- , CONSTRAINT PK_CONT_REVIEW PRIMARY KEY (CONT_ID)
-);
-COMMENT ON TABLE TB_CONT_REVIEW IS '수강후기 게시판';
-COMMENT ON COLUMN TB_CONT_REVIEW.CONT_ID IS '게시물 ID';
-COMMENT ON COLUMN TB_CONT_REVIEW.CONT_TITLE IS '게시물 제목';
-COMMENT ON COLUMN TB_CONT_REVIEW.CONT_CONTENT IS '게시물 내용';
-COMMENT ON COLUMN TB_CONT_REVIEW.USER_ID IS '사용자 ID';
-COMMENT ON COLUMN TB_CONT_REVIEW.CONT_READ_CNT IS '조회 수';
-COMMENT ON COLUMN TB_CONT_REVIEW.CONT_LIKE_CNT IS 'LIKE 수';
-COMMENT ON COLUMN TB_CONT_REVIEW.CONT_DIS_CNT IS 'DISLIKE 수';
-COMMENT ON COLUMN TB_CONT_REVIEW.INSERT_DT IS '작성일자';
-COMMENT ON COLUMN TB_CONT_REVIEW.UPDATE_DT IS '최종 수정일자';
-COMMENT ON COLUMN TB_CONT_REVIEW.DELETE_YN IS '삭제여부';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK_USER_INFO</t>
-  </si>
-  <si>
-    <t>primary key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK_CONT_REVIEW</t>
-  </si>
-  <si>
-    <t>primary key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_USER_INFO 테이블의 PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_CONT_REVIEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_CONT_REVIEW 테이블의 PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1135,46 +972,450 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIKE / READ / DIS</t>
-  </si>
-  <si>
     <t>게시물 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>VARCHAR2(15)</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
     <t>사용자 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COUNT 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COUNT 일시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>VARCHAR2(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_PID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 PRIMARY ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQUENCE 자리 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE_HEAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 어두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROADFULLADDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_AVAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수식어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효성검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIKE / DIS</t>
+  </si>
+  <si>
+    <t>LIKE / DIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 인증여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_MAIL_AVAIL_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(6)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 코드명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 코드 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_USER_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONT_ID</t>
+  </si>
+  <si>
+    <t>CONT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPINION_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 FULLNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVIEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_PID</t>
+  </si>
+  <si>
+    <t>UPDATE_PID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정자 PRIMARY ID</t>
+  </si>
+  <si>
+    <t>수정자 PRIMARY ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_NAV_MAIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAV_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAV_FULLNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 용도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_CODE_AUTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTH_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTH_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLUMN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLUMN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼에서 사용하는 경우는 어미에 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한 코드 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한 코드명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTH_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTH_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE_YN</t>
+  </si>
+  <si>
+    <t>UPDATE_DT</t>
+  </si>
+  <si>
+    <t>최종 수정일자</t>
+  </si>
+  <si>
+    <t>메뉴 삭제여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 코드 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 PRIMARY ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단메뉴 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAV_UPPER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 HASH 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 ID</t>
+  </si>
+  <si>
+    <t>SEQ NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQ_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_PID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>READ_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회 일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의견 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의견 반영 일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPINION_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPINION_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 PRIMARY ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회자 PRIMARY ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 영문명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 한글명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2(15)</t>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-  </si>
-  <si>
-    <t>사용자 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2(6)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NOT NULL</t>
+    <t>메뉴 PRIMARY ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE_PATTERN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1182,15 +1423,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USER_PID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 PRIMARY ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE TB_USER_INFO
+    <t>메뉴 PRIMARY ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAV_PID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정보 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"CREATE TABLE TB_USER_INFO
 (
  USER_PID VARCHAR2(6) NOT NULL
  , USER_ID VARCHAR2(15) NOT NULL
@@ -1200,10 +1445,14 @@
  , USER_MAIL VARCHAR2(25) 
  , USER_ADDRESS VARCHAR2(100) 
  , USER_ZIPCODE VARCHAR2(6) 
- , AUTH_GROUP VARCHAR2(6) NOT NULL
+ , AUTH_CODE VARCHAR2(6) NOT NULL
  , INSERT_DT DATE NOT NULL
  , UPDATE_DT DATE 
+ , UPDATE_PID VARCHAR2(6) 
  , DELETE_YN VARCHAR2(1) 
+ , ROADFULLADDR VARCHAR2(100) 
+ , SALT VARCHAR2(20) 
+ , USER_MAIL_AVAIL_YN VARCHAR2(5) 
  , CONSTRAINT PK_USER_INFO PRIMARY KEY (USER_PID)
 );
 COMMENT ON TABLE TB_USER_INFO IS '사용자 정보 테이블';
@@ -1215,124 +1464,185 @@
 COMMENT ON COLUMN TB_USER_INFO.USER_MAIL IS '사용자 E-mail 주소';
 COMMENT ON COLUMN TB_USER_INFO.USER_ADDRESS IS '사용자 거주지 주소';
 COMMENT ON COLUMN TB_USER_INFO.USER_ZIPCODE IS '사용자 우편번호';
-COMMENT ON COLUMN TB_USER_INFO.AUTH_GROUP IS '권한 그룹';
+COMMENT ON COLUMN TB_USER_INFO.AUTH_CODE IS '권한 그룹';
 COMMENT ON COLUMN TB_USER_INFO.INSERT_DT IS '가입일자';
 COMMENT ON COLUMN TB_USER_INFO.UPDATE_DT IS '최종 수정일자';
-COMMENT ON COLUMN TB_USER_INFO.DELETE_YN IS '휴면계정여부';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODE_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODE 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 코드 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_CODE_BOARD_KEY</t>
-  </si>
-  <si>
-    <t>TB_CODE_BOARD_KEY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOARD_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEQUENCE 자리 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODE_HEAD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코드 어두</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 FULLNAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REVIEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODE_SEQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE TB_CODE_BOARD_KEY
+COMMENT ON COLUMN TB_USER_INFO.UPDATE_PID IS '수정자 PRIMARY ID';
+COMMENT ON COLUMN TB_USER_INFO.DELETE_YN IS '휴면계정여부';
+COMMENT ON COLUMN TB_USER_INFO.ROADFULLADDR IS '주소정보';
+COMMENT ON COLUMN TB_USER_INFO.SALT IS '비밀번호 HASH 값';
+COMMENT ON COLUMN TB_USER_INFO.USER_MAIL_AVAIL_YN IS '이메일 인증여부';"
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단 메뉴 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE TB_NAV_MAIN
 (
- BOARD_NAME VARCHAR2(15) NOT NULL
- , CODE_HEAD VARCHAR2(4) NOT NULL
- , CODE_SEQ VARCHAR2(6) NOT NULL
- , CONSTRAINT PK_CODE_BOARD_KEY PRIMARY KEY (BOARD_NAME)
+ NAV_UPPER_ID VARCHAR2(6) 
+ , NAV_PID VARCHAR2(6) NOT NULL
+ , NAV_NAME VARCHAR2(12) NOT NULL
+ , NAV_FULLNAME VARCHAR2(15) NOT NULL
+ , AUTH_CODE VARCHAR2(6) NOT NULL
+ , UPDATE_DT DATE 
+ , UPDATE_PID VARCHAR2(6) 
+ , DELETE_YN VARCHAR2(1) 
+ , CONSTRAINT PK_NAV_MAIN PRIMARY KEY (NAV_PID)
 );
-COMMENT ON TABLE TB_CODE_BOARD_KEY IS '게시판 코드 규칙';
-COMMENT ON COLUMN TB_CODE_BOARD_KEY.BOARD_NAME IS '게시판 FULLNAME';
-COMMENT ON COLUMN TB_CODE_BOARD_KEY.CODE_HEAD IS '코드 어두';
-COMMENT ON COLUMN TB_CODE_BOARD_KEY.CODE_SEQ IS 'SEQUENCE 자리 수';
-INSERT INTO TB_CODE_BOARD_KEY
-VALUES ('REVIEW', 'RV', '0000');</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK_CODE_BOARD_KEY</t>
-  </si>
-  <si>
-    <t>TB_CODE_BOARD_KEY 테이블의 PK</t>
+COMMENT ON TABLE TB_NAV_MAIN IS '상단 메뉴 테이블';
+COMMENT ON COLUMN TB_NAV_MAIN.NAV_UPPER_ID IS '상단메뉴 코드';
+COMMENT ON COLUMN TB_NAV_MAIN.NAV_PID IS '메뉴 PRIMARY ID';
+COMMENT ON COLUMN TB_NAV_MAIN.NAV_NAME IS '메뉴 한글명';
+COMMENT ON COLUMN TB_NAV_MAIN.NAV_FULLNAME IS '메뉴 영문명';
+COMMENT ON COLUMN TB_NAV_MAIN.AUTH_CODE IS '권한 코드';
+COMMENT ON COLUMN TB_NAV_MAIN.UPDATE_DT IS '최종 수정일자';
+COMMENT ON COLUMN TB_NAV_MAIN.UPDATE_PID IS '수정자 PRIMARY ID';
+COMMENT ON COLUMN TB_NAV_MAIN.DELETE_YN IS '메뉴 삭제여부';
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE TB_CODE_AUTH
+(
+ AUTH_CODE VARCHAR2(6) NOT NULL
+ , AUTH_NAME VARCHAR2(10) NOT NULL
+ , CONSTRAINT PK_CODE_AUTH PRIMARY KEY (AUTH_CODE)
+);
+COMMENT ON TABLE TB_CODE_AUTH IS '권한 코드 테이블';
+COMMENT ON COLUMN TB_CODE_AUTH.AUTH_CODE IS '권한 코드';
+COMMENT ON COLUMN TB_CODE_AUTH.AUTH_NAME IS '권한 코드명';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_CONT_REVIEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용후기 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE TB_CONT_REVIEW
+(
+ CONT_ID VARCHAR2(6) NOT NULL
+ , CONT_TITLE VARCHAR2(30) NOT NULL
+ , CONT_CONTENT CLOB NOT NULL
+ , USER_PID VARCHAR2(6) NOT NULL
+ , INSERT_DT DATE NOT NULL
+ , UPDATE_DT DATE 
+ , UPDATE_PID VARCHAR2(6) 
+ , DELETE_YN VARCHAR2(1) 
+ , CONSTRAINT PK_CONT_REVIEW PRIMARY KEY (CONT_ID)
+);
+COMMENT ON TABLE TB_CONT_REVIEW IS '사용후기 테이블';
+COMMENT ON COLUMN TB_CONT_REVIEW.CONT_ID IS '게시물 ID';
+COMMENT ON COLUMN TB_CONT_REVIEW.CONT_TITLE IS '게시물 제목';
+COMMENT ON COLUMN TB_CONT_REVIEW.CONT_CONTENT IS '게시물 내용';
+COMMENT ON COLUMN TB_CONT_REVIEW.USER_PID IS '사용자 ID';
+COMMENT ON COLUMN TB_CONT_REVIEW.INSERT_DT IS '작성일자';
+COMMENT ON COLUMN TB_CONT_REVIEW.UPDATE_DT IS '최종 수정일자';
+COMMENT ON COLUMN TB_CONT_REVIEW.UPDATE_PID IS '수정자 PRIMARY ID';
+COMMENT ON COLUMN TB_CONT_REVIEW.DELETE_YN IS '삭제여부';
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_CONT_READ_CNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE TB_CONT_READ_CNT
+(
+ SEQ_NUM VARCHAR2(8) NOT NULL
+ , CONT_ID VARCHAR2(6) NOT NULL
+ , USER_PID VARCHAR2(6) NOT NULL
+ , READ_DT DATE 
+ , CONSTRAINT PK_CONT_READ_CNT PRIMARY KEY (SEQ_NUM)
+);
+COMMENT ON TABLE TB_CONT_READ_CNT IS '조회수 테이블';
+COMMENT ON COLUMN TB_CONT_READ_CNT.SEQ_NUM IS 'SEQ NUMBER';
+COMMENT ON COLUMN TB_CONT_READ_CNT.CONT_ID IS '게시물 ID';
+COMMENT ON COLUMN TB_CONT_READ_CNT.USER_PID IS '조회자 PRIMARY ID';
+COMMENT ON COLUMN TB_CONT_READ_CNT.READ_DT IS '조회 일시';
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_CONT_OPINION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의견 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE TB_CONT_OPINION
+(
+ CONT_ID VARCHAR2(6) NOT NULL
+ , USER_PID VARCHAR2(6) NOT NULL
+ , OPINION_CODE VARCHAR2(6) NOT NULL
+ , UPDATE_DT DATE NOT NULL
+ , CONSTRAINT PK_CONT_OPINION PRIMARY KEY (CONT_ID, USER_PID)
+);
+COMMENT ON TABLE TB_CONT_OPINION IS '의견 테이블';
+COMMENT ON COLUMN TB_CONT_OPINION.CONT_ID IS '게시물 ID';
+COMMENT ON COLUMN TB_CONT_OPINION.USER_PID IS '사용자 PRIMARY ID';
+COMMENT ON COLUMN TB_CONT_OPINION.OPINION_CODE IS '의견 종류';
+COMMENT ON COLUMN TB_CONT_OPINION.UPDATE_DT IS '의견 반영 일시';
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_CODE_OPINION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의견 코드 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE TB_CODE_OPINION
+(
+ NAV_PID VARCHAR2(5) NOT NULL
+ , OPINION_CODE VARCHAR2(6) NOT NULL
+ , OPINION_NAME VARCHAR2(20) 
+ , UPDATE_DT DATE 
+ , UPDATE_PID VARCHAR2(6) 
+ , CONSTRAINT PK_CODE_OPINION PRIMARY KEY (NAV_PID, OPINION_CODE)
+);
+COMMENT ON TABLE TB_CODE_OPINION IS '의견 코드 테이블';
+COMMENT ON COLUMN TB_CODE_OPINION.NAV_PID IS '메뉴 PRIMARY ID';
+COMMENT ON COLUMN TB_CODE_OPINION.OPINION_CODE IS '사용 코드명';
+COMMENT ON COLUMN TB_CODE_OPINION.OPINION_NAME IS '사용 코드 정의';
+COMMENT ON COLUMN TB_CODE_OPINION.UPDATE_DT IS '최종 수정일자';
+COMMENT ON COLUMN TB_CODE_OPINION.UPDATE_PID IS '수정자 PRIMARY ID';
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_CODE_CONT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE TB_CODE_CONT_ID
+(
+ NAV_PID VARCHAR2(6) NOT NULL
+ , CODE_HEAD VARCHAR2(3) NOT NULL
+ , CODE_PATTERN VARCHAR2(6) NOT NULL
+ , CONSTRAINT PK_CODE_CONT_ID PRIMARY KEY (NAV_PID)
+);
+COMMENT ON TABLE TB_CODE_CONT_ID IS '게시판 코드 규칙';
+COMMENT ON COLUMN TB_CODE_CONT_ID.NAV_PID IS '메뉴 PRIMARY ID';
+COMMENT ON COLUMN TB_CODE_CONT_ID.CODE_HEAD IS '코드 어두';
+COMMENT ON COLUMN TB_CODE_CONT_ID.CODE_PATTERN IS 'SEQUENCE 자리 수';
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1492,7 +1802,26 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1771,23 +2100,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="str">
         <f ca="1">"* "&amp;RIGHT(CELL("filename",B3),LEN(CELL("filename",B3))-FIND("]",CELL("filename",B3)))</f>
         <v>* 메뉴 구성</v>
@@ -1797,16 +2127,18 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -1814,47 +2146,53 @@
         <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
@@ -1863,20 +2201,22 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
@@ -1884,95 +2224,105 @@
         <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>69</v>
       </c>
@@ -1980,9 +2330,10 @@
         <v>83</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="2"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -1991,8 +2342,9 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -2001,8 +2353,9 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -2011,8 +2364,9 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
@@ -2021,8 +2375,9 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
@@ -2031,8 +2386,9 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -2041,6 +2397,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2257,10 +2614,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2313,7 +2670,7 @@
     </row>
     <row r="3" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -2332,7 +2689,7 @@
     </row>
     <row r="4" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -2351,7 +2708,7 @@
     </row>
     <row r="5" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -2370,7 +2727,7 @@
     </row>
     <row r="6" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -2389,7 +2746,7 @@
     </row>
     <row r="7" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2408,19 +2765,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>87</v>
@@ -2428,209 +2785,246 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>220</v>
+        <v>294</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>220</v>
+        <v>295</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>282</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2645,226 +3039,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="35.5" style="1" customWidth="1"/>
-    <col min="6" max="14" width="9" style="1"/>
+    <col min="1" max="1" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="24.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="35.5" style="1" customWidth="1"/>
+    <col min="10" max="18" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="str">
-        <f ca="1">"* "&amp;RIGHT(CELL("filename",B3),LEN(CELL("filename",B3))-FIND("]",CELL("filename",B3)))</f>
-        <v>* DB 구조</v>
+        <f ca="1">"* "&amp;RIGHT(CELL("filename",C3),LEN(CELL("filename",C3))-FIND("]",CELL("filename",C3)))</f>
+        <v>* TABLE 구조</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-    </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:P48"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="15.125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="24.5" style="1" customWidth="1"/>
-    <col min="8" max="16" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="str">
-        <f ca="1">"* "&amp;RIGHT(CELL("filename",B3),LEN(CELL("filename",B3))-FIND("]",CELL("filename",B3)))</f>
-        <v>* TABLE 구조</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="F1" s="4"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -2875,14 +3078,16 @@
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
-    </row>
-    <row r="2" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+    </row>
+    <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -2893,469 +3098,858 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G8" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="G34" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="56" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="F56" s="4"/>
+      <c r="G56" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="6:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="6:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="6:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="6:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="6:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F69" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A5:I101">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>NOT(ISBLANK($C5))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3431,7 +4025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3520,7 +4114,7 @@
         <v>43340</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>103</v>
@@ -3542,10 +4136,10 @@
         <v>43340</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3555,7 +4149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>

--- a/EnglishCat/doc/details.xlsx
+++ b/EnglishCat/doc/details.xlsx
@@ -1,27 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5D0E8D37-0639-424A-9ED9-2334C8C20708}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="9615" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23295" windowHeight="8955" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴 구성" sheetId="2" r:id="rId1"/>
     <sheet name="관리자 화면" sheetId="3" r:id="rId2"/>
     <sheet name="분류 설명" sheetId="6" r:id="rId3"/>
     <sheet name="Naming Rule" sheetId="10" r:id="rId4"/>
-    <sheet name="TABLE 구조" sheetId="9" r:id="rId5"/>
-    <sheet name="담당" sheetId="7" r:id="rId6"/>
-    <sheet name="일지 (임시)" sheetId="8" r:id="rId7"/>
-    <sheet name="메뉴 리스트" sheetId="1" r:id="rId8"/>
+    <sheet name="DB 구조" sheetId="4" r:id="rId5"/>
+    <sheet name="TABLE 구조" sheetId="9" r:id="rId6"/>
+    <sheet name="담당" sheetId="7" r:id="rId7"/>
+    <sheet name="일지 (임시)" sheetId="8" r:id="rId8"/>
+    <sheet name="메뉴 리스트" sheetId="1" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
+  <oleSize ref="A1:M25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="304">
   <si>
     <t>잉글리쉬캣</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,6 +510,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>장예원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -529,6 +535,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -553,6 +563,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TB_USER_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -593,6 +611,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AUTH_GROUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DATE</t>
   </si>
   <si>
@@ -619,6 +641,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>VARCHAR2(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>VARCHAR2(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -647,10 +673,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TB_CONT_REVIEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CONT_TITLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CONT_READ_CNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONT_LIKE_CNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONT_DIS_CNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CONT_CONTENT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -659,6 +705,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONT_CNT_SORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>VARCHAR2(6)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -675,6 +729,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>NUMBER(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>NOT NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -687,6 +749,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>VARCHAR2(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -703,6 +769,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_CODE_CNT_SORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_CONT_REVIEW_CNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강후기 조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>사용자 비밀번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -755,6 +841,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>조회 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIKE 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISLIKE 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>작성일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -768,6 +866,68 @@
   </si>
   <si>
     <t>삭제여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정보 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강후기 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE TB_CONT_REVIEW
+(
+ CONT_ID VARCHAR2(6) NOT NULL
+ , CONT_TITLE VARCHAR2(30) NOT NULL
+ , CONT_CONTENT CLOB NOT NULL
+ , USER_ID VARCHAR2(15) NOT NULL
+ , CONT_READ_CNT NUMBER(4) 
+ , CONT_LIKE_CNT NUMBER(4) 
+ , CONT_DIS_CNT NUMBER(4) 
+ , INSERT_DT DATE NOT NULL
+ , UPDATE_DT DATE 
+ , DELETE_YN VARCHAR2(1) 
+ , CONSTRAINT PK_CONT_REVIEW PRIMARY KEY (CONT_ID)
+);
+COMMENT ON TABLE TB_CONT_REVIEW IS '수강후기 게시판';
+COMMENT ON COLUMN TB_CONT_REVIEW.CONT_ID IS '게시물 ID';
+COMMENT ON COLUMN TB_CONT_REVIEW.CONT_TITLE IS '게시물 제목';
+COMMENT ON COLUMN TB_CONT_REVIEW.CONT_CONTENT IS '게시물 내용';
+COMMENT ON COLUMN TB_CONT_REVIEW.USER_ID IS '사용자 ID';
+COMMENT ON COLUMN TB_CONT_REVIEW.CONT_READ_CNT IS '조회 수';
+COMMENT ON COLUMN TB_CONT_REVIEW.CONT_LIKE_CNT IS 'LIKE 수';
+COMMENT ON COLUMN TB_CONT_REVIEW.CONT_DIS_CNT IS 'DISLIKE 수';
+COMMENT ON COLUMN TB_CONT_REVIEW.INSERT_DT IS '작성일자';
+COMMENT ON COLUMN TB_CONT_REVIEW.UPDATE_DT IS '최종 수정일자';
+COMMENT ON COLUMN TB_CONT_REVIEW.DELETE_YN IS '삭제여부';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_USER_INFO</t>
+  </si>
+  <si>
+    <t>primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_CONT_REVIEW</t>
+  </si>
+  <si>
+    <t>primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_USER_INFO 테이블의 PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_CONT_REVIEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_CONT_REVIEW 테이블의 PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -972,10 +1132,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIKE / READ / DIS</t>
+  </si>
+  <si>
     <t>게시물 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>사용자 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COUNT 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COUNT 일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>USER_ID</t>
   </si>
   <si>
@@ -1008,434 +1187,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODE_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODE 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEQUENCE 자리 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODE_HEAD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코드 어두</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROADFULLADDR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SALT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_AVAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수식어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유효성검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIKE / DIS</t>
-  </si>
-  <si>
-    <t>LIKE / DIS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 인증여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_MAIL_AVAIL_YN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(6)</t>
-  </si>
-  <si>
-    <t>VARCHAR2(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용 코드명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용 예</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용 코드 정의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_USER_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONT_ID</t>
-  </si>
-  <si>
-    <t>CONT_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPINION_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴 FULLNAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REVIEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_PID</t>
-  </si>
-  <si>
-    <t>UPDATE_PID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정자 PRIMARY ID</t>
-  </si>
-  <si>
-    <t>수정자 PRIMARY ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_NAV_MAIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAV_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAV_FULLNAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블 용도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_CODE_AUTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTH_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTH_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COLUMN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COLUMN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODE 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컬럼에서 사용하는 경우는 어미에 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한 코드 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한 코드명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTH_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTH_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELETE_YN</t>
-  </si>
-  <si>
-    <t>UPDATE_DT</t>
-  </si>
-  <si>
-    <t>최종 수정일자</t>
-  </si>
-  <si>
-    <t>메뉴 삭제여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 코드 규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴 PRIMARY ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단메뉴 코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAV_UPPER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 HASH 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시물 ID</t>
-  </si>
-  <si>
-    <t>SEQ NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEQ_NUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_PID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>READ_DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회 일시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의견 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의견 반영 일시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPINION_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPINION_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 PRIMARY ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회자 PRIMARY ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴 영문명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴 한글명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴 PRIMARY ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODE_PATTERN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴 PRIMARY ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAV_PID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 정보 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">"CREATE TABLE TB_USER_INFO
+    <t>CREATE TABLE TB_USER_INFO
 (
  USER_PID VARCHAR2(6) NOT NULL
  , USER_ID VARCHAR2(15) NOT NULL
@@ -1445,14 +1197,10 @@
  , USER_MAIL VARCHAR2(25) 
  , USER_ADDRESS VARCHAR2(100) 
  , USER_ZIPCODE VARCHAR2(6) 
- , AUTH_CODE VARCHAR2(6) NOT NULL
+ , AUTH_GROUP VARCHAR2(6) NOT NULL
  , INSERT_DT DATE NOT NULL
  , UPDATE_DT DATE 
- , UPDATE_PID VARCHAR2(6) 
  , DELETE_YN VARCHAR2(1) 
- , ROADFULLADDR VARCHAR2(100) 
- , SALT VARCHAR2(20) 
- , USER_MAIL_AVAIL_YN VARCHAR2(5) 
  , CONSTRAINT PK_USER_INFO PRIMARY KEY (USER_PID)
 );
 COMMENT ON TABLE TB_USER_INFO IS '사용자 정보 테이블';
@@ -1464,192 +1212,131 @@
 COMMENT ON COLUMN TB_USER_INFO.USER_MAIL IS '사용자 E-mail 주소';
 COMMENT ON COLUMN TB_USER_INFO.USER_ADDRESS IS '사용자 거주지 주소';
 COMMENT ON COLUMN TB_USER_INFO.USER_ZIPCODE IS '사용자 우편번호';
-COMMENT ON COLUMN TB_USER_INFO.AUTH_CODE IS '권한 그룹';
+COMMENT ON COLUMN TB_USER_INFO.AUTH_GROUP IS '권한 그룹';
 COMMENT ON COLUMN TB_USER_INFO.INSERT_DT IS '가입일자';
 COMMENT ON COLUMN TB_USER_INFO.UPDATE_DT IS '최종 수정일자';
-COMMENT ON COLUMN TB_USER_INFO.UPDATE_PID IS '수정자 PRIMARY ID';
-COMMENT ON COLUMN TB_USER_INFO.DELETE_YN IS '휴면계정여부';
-COMMENT ON COLUMN TB_USER_INFO.ROADFULLADDR IS '주소정보';
-COMMENT ON COLUMN TB_USER_INFO.SALT IS '비밀번호 HASH 값';
-COMMENT ON COLUMN TB_USER_INFO.USER_MAIL_AVAIL_YN IS '이메일 인증여부';"
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단 메뉴 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CREATE TABLE TB_NAV_MAIN
+COMMENT ON COLUMN TB_USER_INFO.DELETE_YN IS '휴면계정여부';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 코드 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_CODE_BOARD_KEY</t>
+  </si>
+  <si>
+    <t>TB_CODE_BOARD_KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOARD_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQUENCE 자리 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE_HEAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 어두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 FULLNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVIEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE_SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE TB_CODE_BOARD_KEY
 (
- NAV_UPPER_ID VARCHAR2(6) 
- , NAV_PID VARCHAR2(6) NOT NULL
- , NAV_NAME VARCHAR2(12) NOT NULL
- , NAV_FULLNAME VARCHAR2(15) NOT NULL
- , AUTH_CODE VARCHAR2(6) NOT NULL
- , UPDATE_DT DATE 
- , UPDATE_PID VARCHAR2(6) 
- , DELETE_YN VARCHAR2(1) 
- , CONSTRAINT PK_NAV_MAIN PRIMARY KEY (NAV_PID)
+ BOARD_NAME VARCHAR2(15) NOT NULL
+ , CODE_HEAD VARCHAR2(4) NOT NULL
+ , CODE_SEQ VARCHAR2(6) NOT NULL
+ , CONSTRAINT PK_CODE_BOARD_KEY PRIMARY KEY (BOARD_NAME)
 );
-COMMENT ON TABLE TB_NAV_MAIN IS '상단 메뉴 테이블';
-COMMENT ON COLUMN TB_NAV_MAIN.NAV_UPPER_ID IS '상단메뉴 코드';
-COMMENT ON COLUMN TB_NAV_MAIN.NAV_PID IS '메뉴 PRIMARY ID';
-COMMENT ON COLUMN TB_NAV_MAIN.NAV_NAME IS '메뉴 한글명';
-COMMENT ON COLUMN TB_NAV_MAIN.NAV_FULLNAME IS '메뉴 영문명';
-COMMENT ON COLUMN TB_NAV_MAIN.AUTH_CODE IS '권한 코드';
-COMMENT ON COLUMN TB_NAV_MAIN.UPDATE_DT IS '최종 수정일자';
-COMMENT ON COLUMN TB_NAV_MAIN.UPDATE_PID IS '수정자 PRIMARY ID';
-COMMENT ON COLUMN TB_NAV_MAIN.DELETE_YN IS '메뉴 삭제여부';
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE TB_CODE_AUTH
-(
- AUTH_CODE VARCHAR2(6) NOT NULL
- , AUTH_NAME VARCHAR2(10) NOT NULL
- , CONSTRAINT PK_CODE_AUTH PRIMARY KEY (AUTH_CODE)
-);
-COMMENT ON TABLE TB_CODE_AUTH IS '권한 코드 테이블';
-COMMENT ON COLUMN TB_CODE_AUTH.AUTH_CODE IS '권한 코드';
-COMMENT ON COLUMN TB_CODE_AUTH.AUTH_NAME IS '권한 코드명';</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_CONT_REVIEW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용후기 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CREATE TABLE TB_CONT_REVIEW
-(
- CONT_ID VARCHAR2(6) NOT NULL
- , CONT_TITLE VARCHAR2(30) NOT NULL
- , CONT_CONTENT CLOB NOT NULL
- , USER_PID VARCHAR2(6) NOT NULL
- , INSERT_DT DATE NOT NULL
- , UPDATE_DT DATE 
- , UPDATE_PID VARCHAR2(6) 
- , DELETE_YN VARCHAR2(1) 
- , CONSTRAINT PK_CONT_REVIEW PRIMARY KEY (CONT_ID)
-);
-COMMENT ON TABLE TB_CONT_REVIEW IS '사용후기 테이블';
-COMMENT ON COLUMN TB_CONT_REVIEW.CONT_ID IS '게시물 ID';
-COMMENT ON COLUMN TB_CONT_REVIEW.CONT_TITLE IS '게시물 제목';
-COMMENT ON COLUMN TB_CONT_REVIEW.CONT_CONTENT IS '게시물 내용';
-COMMENT ON COLUMN TB_CONT_REVIEW.USER_PID IS '사용자 ID';
-COMMENT ON COLUMN TB_CONT_REVIEW.INSERT_DT IS '작성일자';
-COMMENT ON COLUMN TB_CONT_REVIEW.UPDATE_DT IS '최종 수정일자';
-COMMENT ON COLUMN TB_CONT_REVIEW.UPDATE_PID IS '수정자 PRIMARY ID';
-COMMENT ON COLUMN TB_CONT_REVIEW.DELETE_YN IS '삭제여부';
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_CONT_READ_CNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회수 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CREATE TABLE TB_CONT_READ_CNT
-(
- SEQ_NUM VARCHAR2(8) NOT NULL
- , CONT_ID VARCHAR2(6) NOT NULL
- , USER_PID VARCHAR2(6) NOT NULL
- , READ_DT DATE 
- , CONSTRAINT PK_CONT_READ_CNT PRIMARY KEY (SEQ_NUM)
-);
-COMMENT ON TABLE TB_CONT_READ_CNT IS '조회수 테이블';
-COMMENT ON COLUMN TB_CONT_READ_CNT.SEQ_NUM IS 'SEQ NUMBER';
-COMMENT ON COLUMN TB_CONT_READ_CNT.CONT_ID IS '게시물 ID';
-COMMENT ON COLUMN TB_CONT_READ_CNT.USER_PID IS '조회자 PRIMARY ID';
-COMMENT ON COLUMN TB_CONT_READ_CNT.READ_DT IS '조회 일시';
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_CONT_OPINION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의견 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CREATE TABLE TB_CONT_OPINION
-(
- CONT_ID VARCHAR2(6) NOT NULL
- , USER_PID VARCHAR2(6) NOT NULL
- , OPINION_CODE VARCHAR2(6) NOT NULL
- , UPDATE_DT DATE NOT NULL
- , CONSTRAINT PK_CONT_OPINION PRIMARY KEY (CONT_ID, USER_PID)
-);
-COMMENT ON TABLE TB_CONT_OPINION IS '의견 테이블';
-COMMENT ON COLUMN TB_CONT_OPINION.CONT_ID IS '게시물 ID';
-COMMENT ON COLUMN TB_CONT_OPINION.USER_PID IS '사용자 PRIMARY ID';
-COMMENT ON COLUMN TB_CONT_OPINION.OPINION_CODE IS '의견 종류';
-COMMENT ON COLUMN TB_CONT_OPINION.UPDATE_DT IS '의견 반영 일시';
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_CODE_OPINION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의견 코드 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CREATE TABLE TB_CODE_OPINION
-(
- NAV_PID VARCHAR2(5) NOT NULL
- , OPINION_CODE VARCHAR2(6) NOT NULL
- , OPINION_NAME VARCHAR2(20) 
- , UPDATE_DT DATE 
- , UPDATE_PID VARCHAR2(6) 
- , CONSTRAINT PK_CODE_OPINION PRIMARY KEY (NAV_PID, OPINION_CODE)
-);
-COMMENT ON TABLE TB_CODE_OPINION IS '의견 코드 테이블';
-COMMENT ON COLUMN TB_CODE_OPINION.NAV_PID IS '메뉴 PRIMARY ID';
-COMMENT ON COLUMN TB_CODE_OPINION.OPINION_CODE IS '사용 코드명';
-COMMENT ON COLUMN TB_CODE_OPINION.OPINION_NAME IS '사용 코드 정의';
-COMMENT ON COLUMN TB_CODE_OPINION.UPDATE_DT IS '최종 수정일자';
-COMMENT ON COLUMN TB_CODE_OPINION.UPDATE_PID IS '수정자 PRIMARY ID';
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_CODE_CONT_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CREATE TABLE TB_CODE_CONT_ID
-(
- NAV_PID VARCHAR2(6) NOT NULL
- , CODE_HEAD VARCHAR2(3) NOT NULL
- , CODE_PATTERN VARCHAR2(6) NOT NULL
- , CONSTRAINT PK_CODE_CONT_ID PRIMARY KEY (NAV_PID)
-);
-COMMENT ON TABLE TB_CODE_CONT_ID IS '게시판 코드 규칙';
-COMMENT ON COLUMN TB_CODE_CONT_ID.NAV_PID IS '메뉴 PRIMARY ID';
-COMMENT ON COLUMN TB_CODE_CONT_ID.CODE_HEAD IS '코드 어두';
-COMMENT ON COLUMN TB_CODE_CONT_ID.CODE_PATTERN IS 'SEQUENCE 자리 수';
-</t>
+COMMENT ON TABLE TB_CODE_BOARD_KEY IS '게시판 코드 규칙';
+COMMENT ON COLUMN TB_CODE_BOARD_KEY.BOARD_NAME IS '게시판 FULLNAME';
+COMMENT ON COLUMN TB_CODE_BOARD_KEY.CODE_HEAD IS '코드 어두';
+COMMENT ON COLUMN TB_CODE_BOARD_KEY.CODE_SEQ IS 'SEQUENCE 자리 수';
+INSERT INTO TB_CODE_BOARD_KEY
+VALUES ('REVIEW', 'RV', '0000');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_CODE_BOARD_KEY</t>
+  </si>
+  <si>
+    <t>TB_CODE_BOARD_KEY 테이블의 PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1802,26 +1489,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2096,49 +1764,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="1"/>
+    <col min="3" max="3" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="str">
+    <row r="1" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="e">
         <f ca="1">"* "&amp;RIGHT(CELL("filename",B3),LEN(CELL("filename",B3))-FIND("]",CELL("filename",B3)))</f>
-        <v>* 메뉴 구성</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -2146,53 +1811,47 @@
         <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>280</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
@@ -2201,22 +1860,20 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
@@ -2224,105 +1881,95 @@
         <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="D16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>69</v>
       </c>
@@ -2330,10 +1977,9 @@
         <v>83</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -2342,9 +1988,8 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -2353,9 +1998,8 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
@@ -2364,9 +2008,8 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
@@ -2375,9 +2018,8 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
@@ -2386,9 +2028,8 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -2397,7 +2038,6 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2407,7 +2047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2425,9 +2065,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="9" t="e">
         <f ca="1">"* "&amp;RIGHT(CELL("filename",B3),LEN(CELL("filename",B3))-FIND("]",CELL("filename",B3)))</f>
-        <v>* 관리자 화면</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -2492,7 +2132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2511,9 +2151,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="9" t="e">
         <f ca="1">"* "&amp;RIGHT(CELL("filename",B3),LEN(CELL("filename",B3))-FIND("]",CELL("filename",B3)))</f>
-        <v>* 분류 설명</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -2610,14 +2250,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2632,9 +2272,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="9" t="e">
         <f ca="1">"* "&amp;RIGHT(CELL("filename",B8),LEN(CELL("filename",B8))-FIND("]",CELL("filename",B8)))</f>
-        <v>* Naming Rule</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -2670,7 +2310,7 @@
     </row>
     <row r="3" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -2689,7 +2329,7 @@
     </row>
     <row r="4" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -2708,7 +2348,7 @@
     </row>
     <row r="5" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -2727,7 +2367,7 @@
     </row>
     <row r="6" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -2746,7 +2386,7 @@
     </row>
     <row r="7" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2765,19 +2405,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>87</v>
@@ -2785,246 +2425,209 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>295</v>
+        <v>220</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -3035,39 +2638,230 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R69"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="24.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="35.5" style="1" customWidth="1"/>
-    <col min="10" max="18" width="9" style="1"/>
+    <col min="1" max="1" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="35.5" style="1" customWidth="1"/>
+    <col min="6" max="14" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="str">
-        <f ca="1">"* "&amp;RIGHT(CELL("filename",C3),LEN(CELL("filename",C3))-FIND("]",CELL("filename",C3)))</f>
-        <v>* TABLE 구조</v>
+    <row r="1" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="e">
+        <f ca="1">"* "&amp;RIGHT(CELL("filename",B3),LEN(CELL("filename",B3))-FIND("]",CELL("filename",B3)))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="4"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="24.5" style="1" customWidth="1"/>
+    <col min="8" max="16" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="e">
+        <f ca="1">"* "&amp;RIGHT(CELL("filename",B3),LEN(CELL("filename",B3))-FIND("]",CELL("filename",B3)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -3078,16 +2872,14 @@
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-    </row>
-    <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="4"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -3098,859 +2890,470 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G22" s="1" t="s">
+    </row>
+    <row r="40" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G40" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:9" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="6:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="6:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="6:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="6:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="6:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F69" s="4"/>
-    </row>
+    </row>
+    <row r="41" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A5:I101">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>NOT(ISBLANK($C5))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3969,9 +3372,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="9" t="e">
         <f ca="1">"* "&amp;RIGHT(CELL("filename",B3),LEN(CELL("filename",B3))-FIND("]",CELL("filename",B3)))</f>
-        <v>* 담당</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -4025,8 +3428,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4045,9 +3448,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="9" t="e">
         <f ca="1">"* "&amp;RIGHT(CELL("filename",B3),LEN(CELL("filename",B3))-FIND("]",CELL("filename",B3)))</f>
-        <v>* 일지 (임시)</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -4114,7 +3517,7 @@
         <v>43340</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>103</v>
@@ -4136,10 +3539,10 @@
         <v>43340</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4149,8 +3552,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4168,9 +3571,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="9" t="e">
         <f ca="1">"* "&amp;RIGHT(CELL("filename",B3),LEN(CELL("filename",B3))-FIND("]",CELL("filename",B3)))</f>
-        <v>* 메뉴 리스트</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>

--- a/EnglishCat/doc/details.xlsx
+++ b/EnglishCat/doc/details.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5D0E8D37-0639-424A-9ED9-2334C8C20708}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{669C5107-DF13-4A8B-A8DF-93F939AA7DD3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23295" windowHeight="8955" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11235" windowHeight="8370" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴 구성" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="메뉴 리스트" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="179021"/>
-  <oleSize ref="A1:M25"/>
+  <oleSize ref="B1:N24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2644,8 +2644,8 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2839,9 +2839,9 @@
   </sheetPr>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
